--- a/myapp/daftar paper statcal.xlsx
+++ b/myapp/daftar paper statcal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83D6E37-B476-4589-9EC7-93308DC60A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9D986D-A4F5-44FC-A8C0-8271D57236D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="166">
   <si>
     <t>Title</t>
   </si>
@@ -284,6 +284,237 @@
   </si>
   <si>
     <t>https://journal.stiegici.ac.id/index.php/jurnal-gici/article/view/200</t>
+  </si>
+  <si>
+    <t>Earning per Shares Sebagai Pemediasi Pengaruh Kinerja Keuangan terhadap Harga Saham: Studi Empiris pada Perusahaan Sektor Healthcare Papan Utama di Bursa Efek Indonesia</t>
+  </si>
+  <si>
+    <t>https://ejournal.upi.edu/index.php/JRAK/article/view/50228</t>
+  </si>
+  <si>
+    <t>Prana Ugiana Gio, Rizki Syahputra, An Suci Azzahra, Robert Kurniawan, Elly Rosmaini, Irna Triannur Lubis, Yuni Shara</t>
+  </si>
+  <si>
+    <t>JURNAL RISET AKUNTANSI DAN KEUANGAN</t>
+  </si>
+  <si>
+    <t>https://jurnal.unprimdn.ac.id/index.php/JKPI/article/view/7106</t>
+  </si>
+  <si>
+    <t>The Impact of Educational Videos and Leaflets on the Use of PPE Among Welding Workshop Employees</t>
+  </si>
+  <si>
+    <t>Marshall Jeremia Nadapdap, Marlinang Isabella Silalahi, Jessika Miranda Sari</t>
+  </si>
+  <si>
+    <t>Jurnal Kesmas Prima Indonesia (JKPI)</t>
+  </si>
+  <si>
+    <t>Jurnal Keuangan dan Bisnis</t>
+  </si>
+  <si>
+    <t>https://journal.stiegici.ac.id/index.php/jurnal-gici/article/view/307</t>
+  </si>
+  <si>
+    <t>Judianto Tjahjo Nugroho, Eka Dyasinta Afrill, Milesren Sitanggang</t>
+  </si>
+  <si>
+    <t>PENGARUH KINERJA KEUANGAN DAN EARNING PER SHARE DENGAN KURS US DOLAR TERHADAP RUPIAH SEBAGAI VARIABEL INTERVENING TEHADDAP HARGA SAHAM PT. UNILEVER INDONESIA Tbk. TAHUN 2006-2024</t>
+  </si>
+  <si>
+    <t>https://www.ijstm.inarah.co.id/index.php/ijstm/article/view/386</t>
+  </si>
+  <si>
+    <t>Impact of Corona Virus On Total Share In All Company Sectors In Indonesia Stock Exchange</t>
+  </si>
+  <si>
+    <t>https://journal.victoryhaga.org/index.php/hjph/article/view/12</t>
+  </si>
+  <si>
+    <t>Analisis kualitas air minum eksternal di Perumda Tirtanadi Medan</t>
+  </si>
+  <si>
+    <t>Siska Lidya Hutasoit, Taruli Rohana Sinaga</t>
+  </si>
+  <si>
+    <t>Haga Journal of Public Health (HJPH)</t>
+  </si>
+  <si>
+    <t>https://journal.victoryhaga.org/index.php/hjph/article/view/17</t>
+  </si>
+  <si>
+    <t>Analisis sanitasi wisata Aek Sijorni Di Kecamatan Sayur Matinggi</t>
+  </si>
+  <si>
+    <t>Seri Asnawati Munthe, Aiko Lismawati Sitompul, Evaria Sembiring, Otniel Ketaren, Jasmen Manurung, Lia Rosa Veronika Sinaga</t>
+  </si>
+  <si>
+    <t>https://e-journal.uingusdur.ac.id/ijiee/article/view/4659</t>
+  </si>
+  <si>
+    <t>Efektivitas Platform Rumah Belajar sebagai Sumber Belajar Digital di Era Kenormalan Baru</t>
+  </si>
+  <si>
+    <t>Maulana Lubis, Johannes Johannes, Arbanur Rasyid, Nashran Azizan</t>
+  </si>
+  <si>
+    <t>Indonesian Journal of Islamic Elementary Education</t>
+  </si>
+  <si>
+    <t>https://ejurnal.kptk.or.id/oase/article/view/10</t>
+  </si>
+  <si>
+    <t>Pengaruh penerapan kombinasi model flip classroom dan project-based learning pada pelatihan upskilling guru kejuruan berstandar industri</t>
+  </si>
+  <si>
+    <t>Yopi Sopian</t>
+  </si>
+  <si>
+    <t>Jurnal Oase Nusantara</t>
+  </si>
+  <si>
+    <t>Muhammad Yahya, Dyah Vitalocca</t>
+  </si>
+  <si>
+    <t>https://download.garuda.kemdikbud.go.id/article.php?article=3509193&amp;val=30680&amp;title=Penerapan%20Kombinasi%20Metode%20Computational%20Thinking%20dan%20Model%20Emergent%20Learning%20Untuk%20Meningkatkan%20Kemampuan%20Problem%20Solving%20Siswa%20SMK</t>
+  </si>
+  <si>
+    <t>Penerapan Kombinasi Metode Computational Thinking dan Model Emergent Learning Untuk Meningkatkan Kemampuan Problem Solving Siswa SMK</t>
+  </si>
+  <si>
+    <t>SEMINAR NASIONAL HASIL PENELITIAN 2022</t>
+  </si>
+  <si>
+    <t>https://books.google.co.id/books?hl=en&amp;lr=&amp;id=ei1eEAAAQBAJ&amp;oi=fnd&amp;pg=PA19&amp;dq=statcal&amp;ots=Qn5wHGfcOy&amp;sig=JCk-1Chvy36LBQ4Lf43_mdlSOYM&amp;redir_esc=y#v=onepage&amp;q=statcal&amp;f=false</t>
+  </si>
+  <si>
+    <t>APLIKASI RUANGGURU UNTUK PEMBELAJARAN DI ERA COVID-19</t>
+  </si>
+  <si>
+    <t>Maulana Arafat Lubis, Nashran Azizan, Arbanur Rasyid, Nisha Marina</t>
+  </si>
+  <si>
+    <t>Prosiding Webinar Nasional Prodi PGMI IAIN Padangsidimpuan</t>
+  </si>
+  <si>
+    <t>PENGEMBANGAN MODEL EXPERIENCE BERBASIS BUDAYA ANGKOLA UNTUK MENINGKATKAN KETERAMPILAN MAHASISWA DI ABAD 21</t>
+  </si>
+  <si>
+    <t>https://jurnal.uinsyahada.ac.id/index.php/JP/article/view/5177</t>
+  </si>
+  <si>
+    <t>Nashran Azizan, Edy Surya, Johannes Johannes, Maulana Arafat Lubis</t>
+  </si>
+  <si>
+    <t>FORUM PAEDAGOGIK</t>
+  </si>
+  <si>
+    <t>Social Science Material Development Design SpaceTime-Values Dimensions to Improve 21st Century Life Skills</t>
+  </si>
+  <si>
+    <t>Deny Setiawan, Julia Ivana, Sri Yunita, Hidayat</t>
+  </si>
+  <si>
+    <t>Randwick International of Social Sciences (RISS) Journal</t>
+  </si>
+  <si>
+    <t>https://www.randwickresearch.com/index.php/rissj/article/view/520</t>
+  </si>
+  <si>
+    <t>http://jurnal.uinsyahada.ac.id/index.php/IBTIDAIYAH/article/view/4686</t>
+  </si>
+  <si>
+    <t>GAMIFIKASI PEMBELAJARAN DENGAN MENGGUNAKAN KAHOOT PADA MATA KULIAH PPKn MI/SD</t>
+  </si>
+  <si>
+    <t>Maulana Arafat Lubis, Nisha Marina, Marhamah Marhamah, Nashran Azizan</t>
+  </si>
+  <si>
+    <t>RESPON MAHASISWA PGMI TERHADAP PLATFORM WAKELET UNTUK PEMBELAJARAN ONLINE DI MASA PANDEMI COVID-19</t>
+  </si>
+  <si>
+    <t>Nashran Azizan, Maulana Arafat Lubis, Prana Ugiana Gio, Marhamah Marhamah</t>
+  </si>
+  <si>
+    <t>http://jurnal.uinsyahada.ac.id/index.php/IBTIDAIYAH/article/view/3567</t>
+  </si>
+  <si>
+    <t>https://jptam.org/index.php/jptam/article/view/2854</t>
+  </si>
+  <si>
+    <t>Efektivitas Model Pembelajaran Blended Learning Berbasis WhatsApp Di Masa Adaptasi Kebiasaan Baru Pandemi COVID-19 Pada Pembelajaran Mata Pelajaran Geografi SMA</t>
+  </si>
+  <si>
+    <t>Eko Hariyadi, Andri Estining Sejati</t>
+  </si>
+  <si>
+    <t>Jurnal Pendidikan Tambusai</t>
+  </si>
+  <si>
+    <t>http://jurnal.uinsyahada.ac.id/index.php/IBTIDAIYAH/article/view/5622</t>
+  </si>
+  <si>
+    <t>KEPEMIMPINAN KEPALA SEKOLAH DALAM MENINGKATKAN MUTU PENDIDIKAN DI ERA COVID-19</t>
+  </si>
+  <si>
+    <t>Nashran Azizan, Dian Armanto, Maulana Arafat Arafat</t>
+  </si>
+  <si>
+    <t>https://scholarhub.uny.ac.id/jpep/vol25/iss1/7/</t>
+  </si>
+  <si>
+    <t>A psychometric evaluation of the career decision making self-efficacy scale</t>
+  </si>
+  <si>
+    <t>Chandra Yudistira Purnama, Linda Ernawati</t>
+  </si>
+  <si>
+    <t>Jurnal Penelitian dan Evaluasi Pendidikan</t>
+  </si>
+  <si>
+    <t>http://jurnal.uinsyahada.ac.id/index.php/IBTIDAIYAH/article/view/5615</t>
+  </si>
+  <si>
+    <t>IMPLEMENTASI MODEL PEMBELAJARAN POE DI SEKOLAH DASAR</t>
+  </si>
+  <si>
+    <t>Salsabila Salsabila, Nisha Marina, Marhamah Marhamah</t>
+  </si>
+  <si>
+    <t>https://elastisitas.unram.ac.id/index.php/elastisitas/article/view/157</t>
+  </si>
+  <si>
+    <t>PENGARUH DEMOGRAFI DAN SOSIAL BUDAYA MUSTAHIK TERHADAP KEBERHASILAN PENGENTASAN KEMISKINAN DI KABUPATEN LOMBOK TIMUR</t>
+  </si>
+  <si>
+    <t>Adhitya Bagus Singandaru, Ali Akbar Hidayat, Muhammad Dzul Fadlli, Ahmad Zaenal Wafik</t>
+  </si>
+  <si>
+    <t>Elastisitas : Jurnal Ekonomi Pembangunan</t>
+  </si>
+  <si>
+    <t>https://jurnal.unprimdn.ac.id/index.php/JPMS/article/view/3900</t>
+  </si>
+  <si>
+    <t>Prevalensi dan faktor risiko stunting pada anak balita usia 0-59 bulan</t>
+  </si>
+  <si>
+    <t>Suhartati Surbakti, Myrnawati Crie Handini, Johansen Hutajulu, Otniel Ketaren, Rinawati Sembiring, Toni Wandra, Donal Nababan</t>
+  </si>
+  <si>
+    <t>Jurnal Prima Medika Sains</t>
+  </si>
+  <si>
+    <t>https://www.ijebmr.com/uploads/pdf/archivepdf/2021/IJEBMR_822.pdf</t>
+  </si>
+  <si>
+    <t>ENHANCING EXPATRIATE ADJUSTMENT AND PERFORMANCE THROUGH PRE-DEPARTURE TRAINING: AN EMPIRICAL INVESTIGATION ON INDONESIAN MIGRANT WORKERS IN SOUTH KOREA</t>
+  </si>
+  <si>
+    <t>Dina Sartika, Sri Djatnika, Mery Citra Sondari, Wendy Anjasmara</t>
+  </si>
+  <si>
+    <t>International Journal of Economics, Business and Management Research</t>
   </si>
 </sst>
 </file>
@@ -641,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,387 +907,765 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1">
         <v>2025</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2025</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2025</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B7" s="1">
         <v>2024</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1">
         <v>2023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="B17" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="B18" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B42" s="1">
         <v>2019</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B43" s="1">
         <v>2018</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
-    <sortCondition descending="1" ref="B2:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E43">
+    <sortCondition descending="1" ref="B3:B43"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{993932E2-2200-43A5-B2D2-17FC7C6D84A3}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{3B10BBFF-138D-411A-BDE0-FEE01A613DAE}"/>
-    <hyperlink ref="E21" r:id="rId3" xr:uid="{6EEBD1DD-BAB7-4A4D-8BD0-3E06D3A83DE1}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{37B2A129-DA30-4CA3-B657-789E84007E71}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{6C10808D-0598-4AFF-AAC2-E4E0BFFB2E90}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{40E55E3E-76D2-4F94-A21C-373AAB83D552}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{B5CB0D38-AF5E-402A-AFB2-A233941C4B26}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{000B8ED9-D871-4868-88AC-6D6144692EAD}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{39CDDD21-3B84-4B0A-896D-D9A2EADB2674}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{0FF05A8C-DF35-4704-B528-523DF94E888A}"/>
-    <hyperlink ref="E4" r:id="rId11" xr:uid="{D47ECA95-F273-4B61-AFD4-2D65473B850D}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{7FE2493B-5D9B-42FA-AE29-F89C7E1C425E}"/>
-    <hyperlink ref="E16" r:id="rId13" xr:uid="{5129D87B-3EE5-4F90-8ADB-52D8018851E9}"/>
-    <hyperlink ref="E17" r:id="rId14" xr:uid="{A173F42E-2EFC-42CD-9A6D-BAD9B0AB9ED1}"/>
-    <hyperlink ref="E15" r:id="rId15" xr:uid="{FDE85485-ED30-4C6E-B838-9ED427FD8305}"/>
-    <hyperlink ref="E14" r:id="rId16" xr:uid="{15617B44-3744-4285-B515-EDECCA775C2A}"/>
-    <hyperlink ref="E19" r:id="rId17" xr:uid="{AD8614BF-3EB2-47E0-8179-015A42236157}"/>
-    <hyperlink ref="E20" r:id="rId18" xr:uid="{DBBA4194-4752-40AE-9920-1F331E0CF76B}"/>
-    <hyperlink ref="E18" r:id="rId19" xr:uid="{CDCE11B6-3FC5-48C7-A427-6621C9E26A78}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{EDD9FABF-93B6-4FA5-9B7C-C7016343FB15}"/>
-    <hyperlink ref="E5" r:id="rId21" xr:uid="{2B6CCEBD-6F50-4327-8659-B2F971596921}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{993932E2-2200-43A5-B2D2-17FC7C6D84A3}"/>
+    <hyperlink ref="E21" r:id="rId2" xr:uid="{3B10BBFF-138D-411A-BDE0-FEE01A613DAE}"/>
+    <hyperlink ref="E42" r:id="rId3" xr:uid="{6EEBD1DD-BAB7-4A4D-8BD0-3E06D3A83DE1}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{37B2A129-DA30-4CA3-B657-789E84007E71}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{6C10808D-0598-4AFF-AAC2-E4E0BFFB2E90}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{40E55E3E-76D2-4F94-A21C-373AAB83D552}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{B5CB0D38-AF5E-402A-AFB2-A233941C4B26}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{000B8ED9-D871-4868-88AC-6D6144692EAD}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{39CDDD21-3B84-4B0A-896D-D9A2EADB2674}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{0FF05A8C-DF35-4704-B528-523DF94E888A}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{D47ECA95-F273-4B61-AFD4-2D65473B850D}"/>
+    <hyperlink ref="E24" r:id="rId12" xr:uid="{7FE2493B-5D9B-42FA-AE29-F89C7E1C425E}"/>
+    <hyperlink ref="E32" r:id="rId13" xr:uid="{5129D87B-3EE5-4F90-8ADB-52D8018851E9}"/>
+    <hyperlink ref="E33" r:id="rId14" xr:uid="{A173F42E-2EFC-42CD-9A6D-BAD9B0AB9ED1}"/>
+    <hyperlink ref="E31" r:id="rId15" xr:uid="{FDE85485-ED30-4C6E-B838-9ED427FD8305}"/>
+    <hyperlink ref="E30" r:id="rId16" xr:uid="{15617B44-3744-4285-B515-EDECCA775C2A}"/>
+    <hyperlink ref="E40" r:id="rId17" xr:uid="{AD8614BF-3EB2-47E0-8179-015A42236157}"/>
+    <hyperlink ref="E41" r:id="rId18" xr:uid="{DBBA4194-4752-40AE-9920-1F331E0CF76B}"/>
+    <hyperlink ref="E39" r:id="rId19" xr:uid="{CDCE11B6-3FC5-48C7-A427-6621C9E26A78}"/>
+    <hyperlink ref="E43" r:id="rId20" xr:uid="{EDD9FABF-93B6-4FA5-9B7C-C7016343FB15}"/>
+    <hyperlink ref="E12" r:id="rId21" xr:uid="{2B6CCEBD-6F50-4327-8659-B2F971596921}"/>
+    <hyperlink ref="E11" r:id="rId22" xr:uid="{B04022E7-0E7E-4A33-9F0F-7D4159A537B9}"/>
+    <hyperlink ref="E2" r:id="rId23" xr:uid="{07CC31A5-3A0E-48A4-B202-D0447951AAE3}"/>
+    <hyperlink ref="E8" r:id="rId24" xr:uid="{C410DC2A-AE5F-4D57-99C6-B943501E9938}"/>
+    <hyperlink ref="E34" r:id="rId25" xr:uid="{3A32A0B6-53D6-46B5-917F-2B4566EFDB23}"/>
+    <hyperlink ref="E10" r:id="rId26" xr:uid="{566F5A33-7793-4703-A100-6BAD4F8BB91E}"/>
+    <hyperlink ref="E6" r:id="rId27" xr:uid="{075672B9-BA26-4C85-A22B-5D584CD0DEE7}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{4C50EF98-50D0-46C0-9461-FCF39EBC4417}"/>
+    <hyperlink ref="E26" r:id="rId29" xr:uid="{7EFA1A48-A129-4E45-9640-48702279EE67}"/>
+    <hyperlink ref="E25" r:id="rId30" xr:uid="{3FE94344-18F9-4988-913B-8E0393EFE397}"/>
+    <hyperlink ref="E35" r:id="rId31" location="v=onepage&amp;q=statcal&amp;f=false" xr:uid="{0CF8FA94-7F18-4616-91CE-2E00FF0CA4FE}"/>
+    <hyperlink ref="E27" r:id="rId32" xr:uid="{C4B366A9-411E-431C-8CBB-E46E27301D0E}"/>
+    <hyperlink ref="E20" r:id="rId33" xr:uid="{37F22A8D-8F9C-4F6A-9D66-1323509DC689}"/>
+    <hyperlink ref="E36" r:id="rId34" xr:uid="{9445DC86-0AF9-4A87-AD38-64657F54EAC1}"/>
+    <hyperlink ref="E37" r:id="rId35" xr:uid="{5D36C40F-7034-4098-9F1F-2510A3D607A0}"/>
+    <hyperlink ref="E19" r:id="rId36" xr:uid="{70AACBAB-0C81-40C5-B4BF-BC9178871DEB}"/>
+    <hyperlink ref="E18" r:id="rId37" xr:uid="{561A9051-AB2D-483C-B981-136EAC6323E5}"/>
+    <hyperlink ref="E38" r:id="rId38" xr:uid="{E9F2426A-EA23-479B-8FA5-4C8FBA10CF32}"/>
+    <hyperlink ref="E17" r:id="rId39" xr:uid="{D0F6BFF9-0104-4A98-A47F-8459A72D4E1C}"/>
+    <hyperlink ref="E5" r:id="rId40" xr:uid="{D6B20AAA-4900-4D3D-81FE-7A92910CB9D0}"/>
+    <hyperlink ref="E9" r:id="rId41" xr:uid="{476BF579-F8A7-4815-B965-600BB495DD80}"/>
+    <hyperlink ref="E28" r:id="rId42" xr:uid="{0EF306D9-6698-42AA-A0A0-536BE61065F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
